--- a/libmasys/excel/Filosofia.xlsx
+++ b/libmasys/excel/Filosofia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1430">
   <si>
     <t>Titulo</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Aguilar</t>
   </si>
   <si>
-    <t>FILOSOFIA</t>
+    <t>FILOSOFÍA, PSICOLOGÍA Y RELIGIÓN</t>
   </si>
   <si>
     <t>FI C 1</t>
@@ -1849,6 +1849,1284 @@
     <t>FI C 182</t>
   </si>
   <si>
+    <t>Diccionario filosófico</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>Sophos</t>
+  </si>
+  <si>
+    <t>FI C 183</t>
+  </si>
+  <si>
+    <t>El ser y el tiempo</t>
+  </si>
+  <si>
+    <t>Martín Heidegger</t>
+  </si>
+  <si>
+    <t>FI C 184</t>
+  </si>
+  <si>
+    <t>Introducción a la metafísica</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>FI C 185</t>
+  </si>
+  <si>
+    <t>La naturaleza humana</t>
+  </si>
+  <si>
+    <t>Jesús Mosterín</t>
+  </si>
+  <si>
+    <t>FI C 186</t>
+  </si>
+  <si>
+    <t>Medida de la inteligencia</t>
+  </si>
+  <si>
+    <t>Lawis Terman</t>
+  </si>
+  <si>
+    <t>FI C 187</t>
+  </si>
+  <si>
+    <t>Humanismo y terror</t>
+  </si>
+  <si>
+    <t>Maurice Merleau</t>
+  </si>
+  <si>
+    <t>FI C 188</t>
+  </si>
+  <si>
+    <t>El existencialismo y la sabiduría popular</t>
+  </si>
+  <si>
+    <t>Simeine de Beauvoir</t>
+  </si>
+  <si>
+    <t>FI C 189</t>
+  </si>
+  <si>
+    <t>¿Para qué la acción?</t>
+  </si>
+  <si>
+    <t>FI C 190</t>
+  </si>
+  <si>
+    <t>Para una moral de la ambigüedad</t>
+  </si>
+  <si>
+    <t>Schapire</t>
+  </si>
+  <si>
+    <t>FI C 191</t>
+  </si>
+  <si>
+    <t>La naturaleza del prejuicio</t>
+  </si>
+  <si>
+    <t>FI C 192</t>
+  </si>
+  <si>
+    <t>Técnicas generales de hipnotismo</t>
+  </si>
+  <si>
+    <t>André Weitzenhoffer</t>
+  </si>
+  <si>
+    <t>FI C 193</t>
+  </si>
+  <si>
+    <t>La filosofía</t>
+  </si>
+  <si>
+    <t>Karl Jaspers</t>
+  </si>
+  <si>
+    <t>FI C 194</t>
+  </si>
+  <si>
+    <t>Materialismo y revolución</t>
+  </si>
+  <si>
+    <t>Deucalion</t>
+  </si>
+  <si>
+    <t>FI C 195</t>
+  </si>
+  <si>
+    <t>El concepto del hombre</t>
+  </si>
+  <si>
+    <t>Radhakrishnan</t>
+  </si>
+  <si>
+    <t>FI C 196</t>
+  </si>
+  <si>
+    <t>La estructura de la personalidad</t>
+  </si>
+  <si>
+    <t>Philipp Lersch</t>
+  </si>
+  <si>
+    <t>Scientia</t>
+  </si>
+  <si>
+    <t>FI C 197</t>
+  </si>
+  <si>
+    <t>La función del orgasmo</t>
+  </si>
+  <si>
+    <t>Wilhelm Reich</t>
+  </si>
+  <si>
+    <t>FI C 198</t>
+  </si>
+  <si>
+    <t>Ciencia de la lógica</t>
+  </si>
+  <si>
+    <t>G. W. Hegel</t>
+  </si>
+  <si>
+    <t>Hachette</t>
+  </si>
+  <si>
+    <t>FI C 199</t>
+  </si>
+  <si>
+    <t>Los reflejos condicionados aplicados a la psicopatología y psiquiatria</t>
+  </si>
+  <si>
+    <t>I. P. Paulov</t>
+  </si>
+  <si>
+    <t>A. Peña Lillo</t>
+  </si>
+  <si>
+    <t>FI C 200</t>
+  </si>
+  <si>
+    <t>El dolor</t>
+  </si>
+  <si>
+    <t>F. Sauerbruch</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>FI C 201</t>
+  </si>
+  <si>
+    <t>Introducción a la metafísica y la intuición filosófica</t>
+  </si>
+  <si>
+    <t>Henri Bergson</t>
+  </si>
+  <si>
+    <t>FI C 202</t>
+  </si>
+  <si>
+    <t>Fundamientos de la filosofía</t>
+  </si>
+  <si>
+    <t>José Janes</t>
+  </si>
+  <si>
+    <t>FI C 203</t>
+  </si>
+  <si>
+    <t>Así hablo Zaratustra</t>
+  </si>
+  <si>
+    <t>Nietzsche</t>
+  </si>
+  <si>
+    <t>M. Aguilar</t>
+  </si>
+  <si>
+    <t>FI C 204</t>
+  </si>
+  <si>
+    <t>Raices del existir</t>
+  </si>
+  <si>
+    <t>Simone Weil</t>
+  </si>
+  <si>
+    <t>FI C 205</t>
+  </si>
+  <si>
+    <t>La filosofía en sus textos 2</t>
+  </si>
+  <si>
+    <t>FI C 206</t>
+  </si>
+  <si>
+    <t>Dioses, cultos y dogmas</t>
+  </si>
+  <si>
+    <t>Alejandro Hegedus</t>
+  </si>
+  <si>
+    <t>Kier</t>
+  </si>
+  <si>
+    <t>FI C 207</t>
+  </si>
+  <si>
+    <t>Selección de obras de filosofía</t>
+  </si>
+  <si>
+    <t>Baruch de Spinoza</t>
+  </si>
+  <si>
+    <t>FI C 208</t>
+  </si>
+  <si>
+    <t>Del yo al nosotros</t>
+  </si>
+  <si>
+    <t>Fritz Künkel</t>
+  </si>
+  <si>
+    <t>Luis Miracle</t>
+  </si>
+  <si>
+    <t>FI C 209</t>
+  </si>
+  <si>
+    <t>La destinación del hombre</t>
+  </si>
+  <si>
+    <t>N. Berdiaev</t>
+  </si>
+  <si>
+    <t>FI C 210</t>
+  </si>
+  <si>
+    <t>Antología del pensamiento</t>
+  </si>
+  <si>
+    <t>José Palau</t>
+  </si>
+  <si>
+    <t>Apolo</t>
+  </si>
+  <si>
+    <t>FI C 211</t>
+  </si>
+  <si>
+    <t>El conocimiento humano</t>
+  </si>
+  <si>
+    <t>FI C 212</t>
+  </si>
+  <si>
+    <t>Problemas de técnicas psicoanalítica</t>
+  </si>
+  <si>
+    <t>Otto Fenichel</t>
+  </si>
+  <si>
+    <t>Pax México</t>
+  </si>
+  <si>
+    <t>FI C 213</t>
+  </si>
+  <si>
+    <t>Las tres espirales</t>
+  </si>
+  <si>
+    <t>Jean Markale</t>
+  </si>
+  <si>
+    <t>José Olañeta</t>
+  </si>
+  <si>
+    <t>FI C 214</t>
+  </si>
+  <si>
+    <t>La sabiduría del indio americano</t>
+  </si>
+  <si>
+    <t>Joseph bruchac</t>
+  </si>
+  <si>
+    <t>FI C 215</t>
+  </si>
+  <si>
+    <t>La caracterología</t>
+  </si>
+  <si>
+    <t>FI C 216</t>
+  </si>
+  <si>
+    <t>Grupos humanos</t>
+  </si>
+  <si>
+    <t>W. J. H. Sprott</t>
+  </si>
+  <si>
+    <t>FI C 217</t>
+  </si>
+  <si>
+    <t>Crítica de la razón dialéctica</t>
+  </si>
+  <si>
+    <t>FI C 218</t>
+  </si>
+  <si>
+    <t>El ser y la nada</t>
+  </si>
+  <si>
+    <t>Ibero-americana</t>
+  </si>
+  <si>
+    <t>FI C 219</t>
+  </si>
+  <si>
+    <t>Psicodiagnostico</t>
+  </si>
+  <si>
+    <t>H. Rorschach</t>
+  </si>
+  <si>
+    <t>FI C 220</t>
+  </si>
+  <si>
+    <t>Naturaleza, historia y Dios</t>
+  </si>
+  <si>
+    <t>Xavier Zubiri</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>FI C 221</t>
+  </si>
+  <si>
+    <t>Autoridad e individuo</t>
+  </si>
+  <si>
+    <t>FI C 222</t>
+  </si>
+  <si>
+    <t>Diálogos de las carmelitas</t>
+  </si>
+  <si>
+    <t>Georges Bernanos</t>
+  </si>
+  <si>
+    <t>Troquel</t>
+  </si>
+  <si>
+    <t>FI C 223</t>
+  </si>
+  <si>
+    <t>Histoire ilustree de la philosophie</t>
+  </si>
+  <si>
+    <t>Dagobert Runes</t>
+  </si>
+  <si>
+    <t>Nagel</t>
+  </si>
+  <si>
+    <t>FI C 224</t>
+  </si>
+  <si>
+    <t>La conciencia de las palabras</t>
+  </si>
+  <si>
+    <t>Elias Canetti</t>
+  </si>
+  <si>
+    <t>FI C 225</t>
+  </si>
+  <si>
+    <t>El verano</t>
+  </si>
+  <si>
+    <t>Sur</t>
+  </si>
+  <si>
+    <t>FI C 226</t>
+  </si>
+  <si>
+    <t>Apuntes para un tratado de cocotología</t>
+  </si>
+  <si>
+    <t>Miguel de Unamuno</t>
+  </si>
+  <si>
+    <t>La papelera española</t>
+  </si>
+  <si>
+    <t>FI C 227</t>
+  </si>
+  <si>
+    <t>Historia de la filosofía occidental</t>
+  </si>
+  <si>
+    <t>FI C 228</t>
+  </si>
+  <si>
+    <t>La estructura del comportamiento</t>
+  </si>
+  <si>
+    <t>FI C 229</t>
+  </si>
+  <si>
+    <t>Psicoterapia con alucinógenos</t>
+  </si>
+  <si>
+    <t>Alberto Fontana</t>
+  </si>
+  <si>
+    <t>FI C 230</t>
+  </si>
+  <si>
+    <t>El mundo como voluntad y representación</t>
+  </si>
+  <si>
+    <t>FI C 231</t>
+  </si>
+  <si>
+    <t>Tres poetas filósofos</t>
+  </si>
+  <si>
+    <t>FI C 232</t>
+  </si>
+  <si>
+    <t>Jean Paul Sartre versus Merleau Ponty</t>
+  </si>
+  <si>
+    <t>Simone de Beauvoir</t>
+  </si>
+  <si>
+    <t>FI C 233</t>
+  </si>
+  <si>
+    <t>El cielo está en nosotros</t>
+  </si>
+  <si>
+    <t>Theos Bernard</t>
+  </si>
+  <si>
+    <t>FI C 234</t>
+  </si>
+  <si>
+    <t>El loto y el robot</t>
+  </si>
+  <si>
+    <t>Arthur Koestler</t>
+  </si>
+  <si>
+    <t>FI C 235</t>
+  </si>
+  <si>
+    <t>El héroe de las mil caras</t>
+  </si>
+  <si>
+    <t>Joseph Campbell</t>
+  </si>
+  <si>
+    <t>FI C 236</t>
+  </si>
+  <si>
+    <t>Los fundamentos de la caracterología</t>
+  </si>
+  <si>
+    <t>Ludwing Klages</t>
+  </si>
+  <si>
+    <t>FI C 237</t>
+  </si>
+  <si>
+    <t>El orden de los conceptos</t>
+  </si>
+  <si>
+    <t>Club de lectores</t>
+  </si>
+  <si>
+    <t>FI C 238</t>
+  </si>
+  <si>
+    <t>El ABC de la psicología</t>
+  </si>
+  <si>
+    <t>C. K. Ogden</t>
+  </si>
+  <si>
+    <t>Imán</t>
+  </si>
+  <si>
+    <t>FI C 239</t>
+  </si>
+  <si>
+    <t>La doctrina suprema</t>
+  </si>
+  <si>
+    <t>Hubert Benoit</t>
+  </si>
+  <si>
+    <t>Mundonuevo</t>
+  </si>
+  <si>
+    <t>FI C 240</t>
+  </si>
+  <si>
+    <t>Ensayos sobre la experiencia liberadora</t>
+  </si>
+  <si>
+    <t>Roger Godel</t>
+  </si>
+  <si>
+    <t>FI C 241</t>
+  </si>
+  <si>
+    <t>La razón y sus enemigos en nuestro tiempo</t>
+  </si>
+  <si>
+    <t>FI C 242</t>
+  </si>
+  <si>
+    <t>El amor y la religión</t>
+  </si>
+  <si>
+    <t>Soren Kierkegaard</t>
+  </si>
+  <si>
+    <t>FI C 243</t>
+  </si>
+  <si>
+    <t>La psicología objetiva</t>
+  </si>
+  <si>
+    <t>W. Bechterev</t>
+  </si>
+  <si>
+    <t>FI C 244</t>
+  </si>
+  <si>
+    <t>El santo, el genio y el héroe</t>
+  </si>
+  <si>
+    <t>Max Scheler</t>
+  </si>
+  <si>
+    <t>FI C 245</t>
+  </si>
+  <si>
+    <t>Los instintos</t>
+  </si>
+  <si>
+    <t>Gaston Viaud</t>
+  </si>
+  <si>
+    <t>FI C 246</t>
+  </si>
+  <si>
+    <t>Las aventuras de la dialéctica</t>
+  </si>
+  <si>
+    <t>M. Merleau Ponty</t>
+  </si>
+  <si>
+    <t>FI C 247</t>
+  </si>
+  <si>
+    <t>Reich habla de Freud</t>
+  </si>
+  <si>
+    <t>FI C 248</t>
+  </si>
+  <si>
+    <t>Paul Chauchard</t>
+  </si>
+  <si>
+    <t>Stvdivm</t>
+  </si>
+  <si>
+    <t>FI C 249</t>
+  </si>
+  <si>
+    <t>Canibales y reyes</t>
+  </si>
+  <si>
+    <t>Marvin Harris</t>
+  </si>
+  <si>
+    <t>Salvat</t>
+  </si>
+  <si>
+    <t>FI C 250</t>
+  </si>
+  <si>
+    <t>Psiquiatría dinámica</t>
+  </si>
+  <si>
+    <t>Franz Alexander</t>
+  </si>
+  <si>
+    <t>FI C 251</t>
+  </si>
+  <si>
+    <t>Psicología: un estudio de la conducta humana</t>
+  </si>
+  <si>
+    <t>FI C 252</t>
+  </si>
+  <si>
+    <t>Suma teológica</t>
+  </si>
+  <si>
+    <t>Santo Tomás de Aquino</t>
+  </si>
+  <si>
+    <t>FI C 253</t>
+  </si>
+  <si>
+    <t>Estudio científico de la personalidad</t>
+  </si>
+  <si>
+    <t>H. J. Eysenck</t>
+  </si>
+  <si>
+    <t>FI C 254</t>
+  </si>
+  <si>
+    <t>Concepciones de la psiquiatría moderna</t>
+  </si>
+  <si>
+    <t>Harry Stack Sullivan</t>
+  </si>
+  <si>
+    <t>FI C 255</t>
+  </si>
+  <si>
+    <t>Fausto</t>
+  </si>
+  <si>
+    <t>Goethe</t>
+  </si>
+  <si>
+    <t>Universidad de Puerto Rico</t>
+  </si>
+  <si>
+    <t>FI C 256</t>
+  </si>
+  <si>
+    <t>La nueva ontología</t>
+  </si>
+  <si>
+    <t>Nicolai Hartmann</t>
+  </si>
+  <si>
+    <t>FI C 257</t>
+  </si>
+  <si>
+    <t>Los derechos del hombre</t>
+  </si>
+  <si>
+    <t>Dedalo</t>
+  </si>
+  <si>
+    <t>FI C 258</t>
+  </si>
+  <si>
+    <t>Diario metafísico</t>
+  </si>
+  <si>
+    <t>Grabiel Marcel</t>
+  </si>
+  <si>
+    <t>FI C 259</t>
+  </si>
+  <si>
+    <t>Cerebro y conducta</t>
+  </si>
+  <si>
+    <t>N.E. Ischlondsky</t>
+  </si>
+  <si>
+    <t>FI C 260</t>
+  </si>
+  <si>
+    <t>El hipnotismo en la medicina moderna</t>
+  </si>
+  <si>
+    <t>Jerome Schneck</t>
+  </si>
+  <si>
+    <t>FI C 261</t>
+  </si>
+  <si>
+    <t>El sueño y la hipnosia</t>
+  </si>
+  <si>
+    <t>Ivan Paulov</t>
+  </si>
+  <si>
+    <t>Martínez de Murguia</t>
+  </si>
+  <si>
+    <t>FI C 262</t>
+  </si>
+  <si>
+    <t>Las bases físicas de la mente</t>
+  </si>
+  <si>
+    <t>Sherrington y otros</t>
+  </si>
+  <si>
+    <t>Nueva Visión</t>
+  </si>
+  <si>
+    <t>FI C 263</t>
+  </si>
+  <si>
+    <t>Otto Klineberg</t>
+  </si>
+  <si>
+    <t>FI C 264</t>
+  </si>
+  <si>
+    <t>Introducción a la psicología contemporánea</t>
+  </si>
+  <si>
+    <t>José Luis Pinillos</t>
+  </si>
+  <si>
+    <t>Instituto Luis Vives</t>
+  </si>
+  <si>
+    <t>FI C 265</t>
+  </si>
+  <si>
+    <t>La fuente griega</t>
+  </si>
+  <si>
+    <t>FI C 266</t>
+  </si>
+  <si>
+    <t>La experiencia interior</t>
+  </si>
+  <si>
+    <t>Georges Bataille</t>
+  </si>
+  <si>
+    <t>FI C 267</t>
+  </si>
+  <si>
+    <t>Obras escogidas</t>
+  </si>
+  <si>
+    <t>FI C 268</t>
+  </si>
+  <si>
+    <t>FI C 269</t>
+  </si>
+  <si>
+    <t>Naturaleza humana y conducta</t>
+  </si>
+  <si>
+    <t>John Dewey</t>
+  </si>
+  <si>
+    <t>FI C 270</t>
+  </si>
+  <si>
+    <t>Vocación y ética</t>
+  </si>
+  <si>
+    <t>Gregorio Marañón</t>
+  </si>
+  <si>
+    <t>FI C 271</t>
+  </si>
+  <si>
+    <t>Noches aticas</t>
+  </si>
+  <si>
+    <t>Aulo Gelio</t>
+  </si>
+  <si>
+    <t>FI C 272</t>
+  </si>
+  <si>
+    <t>Ensayos liberales</t>
+  </si>
+  <si>
+    <t>FI C 273</t>
+  </si>
+  <si>
+    <t>El tema de nuestro tiempo</t>
+  </si>
+  <si>
+    <t>FI C 274</t>
+  </si>
+  <si>
+    <t>Las confesiones de un pequeño filósofo</t>
+  </si>
+  <si>
+    <t>Azorín</t>
+  </si>
+  <si>
+    <t>FI C 275</t>
+  </si>
+  <si>
+    <t>Caracteres morales, Enquiridion o máximas, La tabla de Cebes</t>
+  </si>
+  <si>
+    <t>FI C 276</t>
+  </si>
+  <si>
+    <t>La noche de Getsemani</t>
+  </si>
+  <si>
+    <t>León Chestov</t>
+  </si>
+  <si>
+    <t>FI C 277</t>
+  </si>
+  <si>
+    <t>La psicofisiología humana</t>
+  </si>
+  <si>
+    <t>Jean Delay</t>
+  </si>
+  <si>
+    <t>FI C 278</t>
+  </si>
+  <si>
+    <t>La idea fija</t>
+  </si>
+  <si>
+    <t>Paul Valey</t>
+  </si>
+  <si>
+    <t>FI C 279</t>
+  </si>
+  <si>
+    <t>La sinagoga de los iconoclastas</t>
+  </si>
+  <si>
+    <t>J. Rodolfo Wilcock</t>
+  </si>
+  <si>
+    <t>FI C 280</t>
+  </si>
+  <si>
+    <t>El negro y su arte</t>
+  </si>
+  <si>
+    <t>FI C 281</t>
+  </si>
+  <si>
+    <t>Antología traducida</t>
+  </si>
+  <si>
+    <t>Max Aub</t>
+  </si>
+  <si>
+    <t>Sex Barral</t>
+  </si>
+  <si>
+    <t>FI C 282</t>
+  </si>
+  <si>
+    <t>El infierno</t>
+  </si>
+  <si>
+    <t>Jean Guitton</t>
+  </si>
+  <si>
+    <t>FI C 283</t>
+  </si>
+  <si>
+    <t>Los métodos actuales del pensamiento</t>
+  </si>
+  <si>
+    <t>I.M. Bochenski</t>
+  </si>
+  <si>
+    <t>Rialp</t>
+  </si>
+  <si>
+    <t>FI C 284</t>
+  </si>
+  <si>
+    <t>La ilustración por la fe</t>
+  </si>
+  <si>
+    <t>Felipe Melanchthon</t>
+  </si>
+  <si>
+    <t>La Aurora</t>
+  </si>
+  <si>
+    <t>FI C 285</t>
+  </si>
+  <si>
+    <t>El conocimiento humano 2</t>
+  </si>
+  <si>
+    <t>FI C 286</t>
+  </si>
+  <si>
+    <t>Ensayos</t>
+  </si>
+  <si>
+    <t>Michel de Montaige</t>
+  </si>
+  <si>
+    <t>Catedra</t>
+  </si>
+  <si>
+    <t>FI C 287</t>
+  </si>
+  <si>
+    <t>La evolución de mi pensamiento filosófico</t>
+  </si>
+  <si>
+    <t>FI C 288</t>
+  </si>
+  <si>
+    <t>El hombre en la encrucijada</t>
+  </si>
+  <si>
+    <t>José Ferrater Mora</t>
+  </si>
+  <si>
+    <t>FI C 289</t>
+  </si>
+  <si>
+    <t>Máximas, Epigramas y Los caracteres de Teofrastos</t>
+  </si>
+  <si>
+    <t>Senén Martín</t>
+  </si>
+  <si>
+    <t>FI C 290</t>
+  </si>
+  <si>
+    <t>La metapsiquica</t>
+  </si>
+  <si>
+    <t>Yvonne Castellan</t>
+  </si>
+  <si>
+    <t>FI C 291</t>
+  </si>
+  <si>
+    <t>El pensamiento de Kierkegaard</t>
+  </si>
+  <si>
+    <t>James Collins</t>
+  </si>
+  <si>
+    <t>FI C 292</t>
+  </si>
+  <si>
+    <t>Fragmentos filosóficos</t>
+  </si>
+  <si>
+    <t>FI C 293</t>
+  </si>
+  <si>
+    <t>Suma teológica: De Dios uno</t>
+  </si>
+  <si>
+    <t>Católica</t>
+  </si>
+  <si>
+    <t>FI C 294</t>
+  </si>
+  <si>
+    <t>Vida de Jesús</t>
+  </si>
+  <si>
+    <t>Barbusse</t>
+  </si>
+  <si>
+    <t>Caro Ragio Mendizábal</t>
+  </si>
+  <si>
+    <t>FI C 295</t>
+  </si>
+  <si>
+    <t>Proceso y realidad</t>
+  </si>
+  <si>
+    <t>Alfred Whitehead</t>
+  </si>
+  <si>
+    <t>FI C 296</t>
+  </si>
+  <si>
+    <t>La biología del espírtitu</t>
+  </si>
+  <si>
+    <t>Edmund Sinnott</t>
+  </si>
+  <si>
+    <t>FI C 297</t>
+  </si>
+  <si>
+    <t>Análisis del espíritu</t>
+  </si>
+  <si>
+    <t>FI C 298</t>
+  </si>
+  <si>
+    <t>Introducción a la ontología</t>
+  </si>
+  <si>
+    <t>Louis Lavalle</t>
+  </si>
+  <si>
+    <t>FI C 299</t>
+  </si>
+  <si>
+    <t>Metafistofeles y el androgino</t>
+  </si>
+  <si>
+    <t>Mircea Eliade</t>
+  </si>
+  <si>
+    <t>Guadarrama</t>
+  </si>
+  <si>
+    <t>FI C 300</t>
+  </si>
+  <si>
+    <t>Metafisica del sentimiento</t>
+  </si>
+  <si>
+    <t>Theodor Haecker</t>
+  </si>
+  <si>
+    <t>FI C 301</t>
+  </si>
+  <si>
+    <t>Cincuenta caracteres</t>
+  </si>
+  <si>
+    <t>FI C 302</t>
+  </si>
+  <si>
+    <t>El concepto de la angustia</t>
+  </si>
+  <si>
+    <t>FI C 303</t>
+  </si>
+  <si>
+    <t>España invertida</t>
+  </si>
+  <si>
+    <t>FI C 304</t>
+  </si>
+  <si>
+    <t>Eckhart y la mística renana</t>
+  </si>
+  <si>
+    <t>Jeane Ancelet</t>
+  </si>
+  <si>
+    <t>FI C 305</t>
+  </si>
+  <si>
+    <t>La angustia</t>
+  </si>
+  <si>
+    <t>FI C 306</t>
+  </si>
+  <si>
+    <t>Meditación de la técnica</t>
+  </si>
+  <si>
+    <t>FI C 307</t>
+  </si>
+  <si>
+    <t>Kant, Hegel y Dilthey</t>
+  </si>
+  <si>
+    <t>FI C 308</t>
+  </si>
+  <si>
+    <t>El fin de la psicología concreta</t>
+  </si>
+  <si>
+    <t>Georges Politzer</t>
+  </si>
+  <si>
+    <t>Jorge Alvarez</t>
+  </si>
+  <si>
+    <t>FI C 309</t>
+  </si>
+  <si>
+    <t>Psicología concreta</t>
+  </si>
+  <si>
+    <t>FI C 310</t>
+  </si>
+  <si>
+    <t>El mundo de la mente</t>
+  </si>
+  <si>
+    <t>J.B. Rhine</t>
+  </si>
+  <si>
+    <t>FI C 311</t>
+  </si>
+  <si>
+    <t>El libro de las mutaciones</t>
+  </si>
+  <si>
+    <t>Richard Wilhelm</t>
+  </si>
+  <si>
+    <t>EDHASA</t>
+  </si>
+  <si>
+    <t>FI C 312</t>
+  </si>
+  <si>
+    <t>El tomismo</t>
+  </si>
+  <si>
+    <t>Étienne Gilson</t>
+  </si>
+  <si>
+    <t>Desclée</t>
+  </si>
+  <si>
+    <t>FI C 313</t>
+  </si>
+  <si>
+    <t>Tratado del análisis del carácter</t>
+  </si>
+  <si>
+    <t>Gaston Berger</t>
+  </si>
+  <si>
+    <t>Ateneo</t>
+  </si>
+  <si>
+    <t>FI C 314</t>
+  </si>
+  <si>
+    <t>Introducción a la filosofía</t>
+  </si>
+  <si>
+    <t>FI C 315</t>
+  </si>
+  <si>
+    <t>Grafología emocional</t>
+  </si>
+  <si>
+    <t>C.A. Honroth</t>
+  </si>
+  <si>
+    <t>FI C 316</t>
+  </si>
+  <si>
+    <t>La filosofía como ciencia estricta</t>
+  </si>
+  <si>
+    <t>Edmundo Husserl</t>
+  </si>
+  <si>
+    <t>FI C 317</t>
+  </si>
+  <si>
+    <t>La teoría interpersonal de la psiquiatría</t>
+  </si>
+  <si>
+    <t>FI C 318</t>
+  </si>
+  <si>
+    <t>FI C 319</t>
+  </si>
+  <si>
+    <t>El suicidio en Escandinavia</t>
+  </si>
+  <si>
+    <t>Herbert Hendin</t>
+  </si>
+  <si>
+    <t>FI C 320</t>
+  </si>
+  <si>
+    <t>Tres reformadores</t>
+  </si>
+  <si>
+    <t>Epesa</t>
+  </si>
+  <si>
+    <t>FI C 321</t>
+  </si>
+  <si>
+    <t>Angelus novus</t>
+  </si>
+  <si>
+    <t>Walter Benjamin</t>
+  </si>
+  <si>
+    <t>FI C 322</t>
+  </si>
+  <si>
+    <t>Discernimiento y perspectiva</t>
+  </si>
+  <si>
+    <t>FI C 323</t>
+  </si>
+  <si>
+    <t>Fundamentos psicofísicos de la libertad</t>
+  </si>
+  <si>
+    <t>Dante Sierra</t>
+  </si>
+  <si>
+    <t>Freeland</t>
+  </si>
+  <si>
+    <t>FI C 324</t>
+  </si>
+  <si>
+    <t>El aire y los sueños</t>
+  </si>
+  <si>
+    <t>G. Bachelard</t>
+  </si>
+  <si>
+    <t>FI C 325</t>
+  </si>
+  <si>
+    <t>Aventuras de las ideas</t>
+  </si>
+  <si>
+    <t>A.N. Whitehead</t>
+  </si>
+  <si>
+    <t>FI C 326</t>
+  </si>
+  <si>
     <t>Cristianos y militares. La Iglesia Antigua frente al ejército y la guerra</t>
   </si>
   <si>
@@ -2002,9 +3280,6 @@
     <t>La gallina ciega: diario español</t>
   </si>
   <si>
-    <t>Max Aub</t>
-  </si>
-  <si>
     <t>Alba</t>
   </si>
   <si>
@@ -2044,9 +3319,6 @@
     <t>Crítica religiosa</t>
   </si>
   <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
     <t>Antonio Roch</t>
   </si>
   <si>
@@ -2140,9 +3412,6 @@
     <t>Libro del cielo y del infierno</t>
   </si>
   <si>
-    <t>Sur</t>
-  </si>
-  <si>
     <t>FI E 30</t>
   </si>
   <si>
@@ -2239,9 +3508,6 @@
     <t>Anselm Stolz</t>
   </si>
   <si>
-    <t>Rialp</t>
-  </si>
-  <si>
     <t>FI E 40</t>
   </si>
   <si>
@@ -2296,9 +3562,6 @@
     <t>El puesto del hombre en el Cosmos</t>
   </si>
   <si>
-    <t>Max Scheler</t>
-  </si>
-  <si>
     <t>FI E 46</t>
   </si>
   <si>
@@ -2330,6 +3593,714 @@
   </si>
   <si>
     <t>FI E 49</t>
+  </si>
+  <si>
+    <t>¿Qué es ser agnóstico?</t>
+  </si>
+  <si>
+    <t>Enrique Tierno Galván</t>
+  </si>
+  <si>
+    <t>FI E 50</t>
+  </si>
+  <si>
+    <t>El hombre máquina / El arte de gozar</t>
+  </si>
+  <si>
+    <t>La Mettrie</t>
+  </si>
+  <si>
+    <t>Valdemar</t>
+  </si>
+  <si>
+    <t>FI E 51</t>
+  </si>
+  <si>
+    <t>El espejo de las ideas</t>
+  </si>
+  <si>
+    <t>Michel Tournier</t>
+  </si>
+  <si>
+    <t>El Acantilado</t>
+  </si>
+  <si>
+    <t>FI E 52</t>
+  </si>
+  <si>
+    <t>Hijo de este tiempo</t>
+  </si>
+  <si>
+    <t>Klaus Mann</t>
+  </si>
+  <si>
+    <t>Minúscula</t>
+  </si>
+  <si>
+    <t>FI E 53</t>
+  </si>
+  <si>
+    <t>El estupidiario de los filósofos</t>
+  </si>
+  <si>
+    <t>Jean-Jacques Barrère y Christian Roche</t>
+  </si>
+  <si>
+    <t>Cátedra</t>
+  </si>
+  <si>
+    <t>FI E 54</t>
+  </si>
+  <si>
+    <t>Meditaciones del Quijote</t>
+  </si>
+  <si>
+    <t>FI E 55</t>
+  </si>
+  <si>
+    <t>La interpretación de los sueños 1</t>
+  </si>
+  <si>
+    <t>FI E 56</t>
+  </si>
+  <si>
+    <t>La interpretación de los sueños 2</t>
+  </si>
+  <si>
+    <t>FI E 57</t>
+  </si>
+  <si>
+    <t>El Príncipe</t>
+  </si>
+  <si>
+    <t>Nicolás Maquiavelo</t>
+  </si>
+  <si>
+    <t>FI E 58</t>
+  </si>
+  <si>
+    <t>FI E 59</t>
+  </si>
+  <si>
+    <t>Las preguntas de la vida</t>
+  </si>
+  <si>
+    <t>FI E 60</t>
+  </si>
+  <si>
+    <t>La vida eterna</t>
+  </si>
+  <si>
+    <t>FI E 61</t>
+  </si>
+  <si>
+    <t>Los hombres nuevos</t>
+  </si>
+  <si>
+    <t>Miguel Lorente Acosta</t>
+  </si>
+  <si>
+    <t>Destino</t>
+  </si>
+  <si>
+    <t>FI E 62</t>
+  </si>
+  <si>
+    <t>FI E 63</t>
+  </si>
+  <si>
+    <t>La cultura de la libertad</t>
+  </si>
+  <si>
+    <t>FI E 64</t>
+  </si>
+  <si>
+    <t>Reglas para la dirección del espíritu</t>
+  </si>
+  <si>
+    <t>Descartes</t>
+  </si>
+  <si>
+    <t>FI E 65</t>
+  </si>
+  <si>
+    <t>Levitación</t>
+  </si>
+  <si>
+    <t>Fernando Arrabal</t>
+  </si>
+  <si>
+    <t>FI E 66</t>
+  </si>
+  <si>
+    <t>Epistola: In Carcere et Vinculis</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>FI E 67</t>
+  </si>
+  <si>
+    <t>Amor y pedagogía</t>
+  </si>
+  <si>
+    <t>FI E 68</t>
+  </si>
+  <si>
+    <t>Carajicomedia</t>
+  </si>
+  <si>
+    <t>Juan Goytisolo</t>
+  </si>
+  <si>
+    <t>FI E 69</t>
+  </si>
+  <si>
+    <t>La paz sin excusa</t>
+  </si>
+  <si>
+    <t>José María Ridao</t>
+  </si>
+  <si>
+    <t>Tusquets</t>
+  </si>
+  <si>
+    <t>FI E 70</t>
+  </si>
+  <si>
+    <t>El círculo de la sabiduría</t>
+  </si>
+  <si>
+    <t>Ignacio Gómez de Liaño</t>
+  </si>
+  <si>
+    <t>FI E 71</t>
+  </si>
+  <si>
+    <t>Técnicas de persuasión</t>
+  </si>
+  <si>
+    <t>J. A. C. Brown</t>
+  </si>
+  <si>
+    <t>Fabril</t>
+  </si>
+  <si>
+    <t>FI E 72</t>
+  </si>
+  <si>
+    <t>La verdad que lleva a la vida eterna</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>FI E 73</t>
+  </si>
+  <si>
+    <t>El sueño de Descartes</t>
+  </si>
+  <si>
+    <t>Biblioteca Nueva Buenos Aires</t>
+  </si>
+  <si>
+    <t>FI E 74</t>
+  </si>
+  <si>
+    <t>Ciencia y filosofía</t>
+  </si>
+  <si>
+    <t>FI E 75</t>
+  </si>
+  <si>
+    <t>Diálogos de Evémero</t>
+  </si>
+  <si>
+    <t>FI E 76</t>
+  </si>
+  <si>
+    <t>10 Maestros del Humor Negro</t>
+  </si>
+  <si>
+    <t>Jonathan Swift</t>
+  </si>
+  <si>
+    <t>Bruguera</t>
+  </si>
+  <si>
+    <t>FI E 77</t>
+  </si>
+  <si>
+    <t>Libro de la vida</t>
+  </si>
+  <si>
+    <t>Santa Teresa de Jesús</t>
+  </si>
+  <si>
+    <t>Castalia</t>
+  </si>
+  <si>
+    <t>FI E 78</t>
+  </si>
+  <si>
+    <t>Pensamientos</t>
+  </si>
+  <si>
+    <t>Blaise Pascal</t>
+  </si>
+  <si>
+    <t>FI E 79</t>
+  </si>
+  <si>
+    <t>El placer y el mal</t>
+  </si>
+  <si>
+    <t>Giulia Sissa</t>
+  </si>
+  <si>
+    <t>FI E 80</t>
+  </si>
+  <si>
+    <t>El Hombre,Imagen de Dios</t>
+  </si>
+  <si>
+    <t>FI E 81</t>
+  </si>
+  <si>
+    <t>Planeta 1</t>
+  </si>
+  <si>
+    <t>Louis Pawels</t>
+  </si>
+  <si>
+    <t>FI E 82</t>
+  </si>
+  <si>
+    <t>Planeta 2</t>
+  </si>
+  <si>
+    <t>FI E 83</t>
+  </si>
+  <si>
+    <t>Planeta 3</t>
+  </si>
+  <si>
+    <t>FI E 84</t>
+  </si>
+  <si>
+    <t>Planeta 4</t>
+  </si>
+  <si>
+    <t>FI E 85</t>
+  </si>
+  <si>
+    <t>Planeta 5</t>
+  </si>
+  <si>
+    <t>FI E 86</t>
+  </si>
+  <si>
+    <t>Planeta 6</t>
+  </si>
+  <si>
+    <t>FI E 87</t>
+  </si>
+  <si>
+    <t>Planeta 7</t>
+  </si>
+  <si>
+    <t>FI E 88</t>
+  </si>
+  <si>
+    <t>Planeta 8</t>
+  </si>
+  <si>
+    <t>FI E 89</t>
+  </si>
+  <si>
+    <t>Las florecillas de San Francisco de Asís</t>
+  </si>
+  <si>
+    <t>San Francisco de Asís</t>
+  </si>
+  <si>
+    <t>Maucci</t>
+  </si>
+  <si>
+    <t>FI E 90</t>
+  </si>
+  <si>
+    <t>Cara a cara con la vida, la mente y el Universo</t>
+  </si>
+  <si>
+    <t>Eduardo Punset</t>
+  </si>
+  <si>
+    <t>FI E 91</t>
+  </si>
+  <si>
+    <t>Las bodas de Cadmo y Harmonía</t>
+  </si>
+  <si>
+    <t>FI E 92</t>
+  </si>
+  <si>
+    <t>La felicidad</t>
+  </si>
+  <si>
+    <t>Jose M.R. Delgado</t>
+  </si>
+  <si>
+    <t>FI E 93</t>
+  </si>
+  <si>
+    <t>El catolicismo explicado a las ovejas</t>
+  </si>
+  <si>
+    <t>Juan Eslava Galán</t>
+  </si>
+  <si>
+    <t>FI E 94</t>
+  </si>
+  <si>
+    <t>Morir es nada</t>
+  </si>
+  <si>
+    <t>Pepe Rodríguez</t>
+  </si>
+  <si>
+    <t>Ediciones B</t>
+  </si>
+  <si>
+    <t>FI E 95</t>
+  </si>
+  <si>
+    <t>La fuerza del optimismo</t>
+  </si>
+  <si>
+    <t>Luis Rojas Marcos</t>
+  </si>
+  <si>
+    <t>Santillana</t>
+  </si>
+  <si>
+    <t>FI E 96</t>
+  </si>
+  <si>
+    <t>Matrimonio y Moral en la época victoriana</t>
+  </si>
+  <si>
+    <t>Gertrude Himmelfarb</t>
+  </si>
+  <si>
+    <t>Debate</t>
+  </si>
+  <si>
+    <t>FI E 97</t>
+  </si>
+  <si>
+    <t>Pensamientos desordenados acerca del amor a Dios</t>
+  </si>
+  <si>
+    <t>FI E 98</t>
+  </si>
+  <si>
+    <t>El filósofo autodidacto</t>
+  </si>
+  <si>
+    <t>Abentofail - Descartes</t>
+  </si>
+  <si>
+    <t>FI E 99</t>
+  </si>
+  <si>
+    <t>La sensación</t>
+  </si>
+  <si>
+    <t>Henri Pierón</t>
+  </si>
+  <si>
+    <t>FI E 100</t>
+  </si>
+  <si>
+    <t>Conocimiento del Mundo Exterior</t>
+  </si>
+  <si>
+    <t>FI E 101</t>
+  </si>
+  <si>
+    <t>Rollo May</t>
+  </si>
+  <si>
+    <t>FI E 102</t>
+  </si>
+  <si>
+    <t>Misticismo y lógica</t>
+  </si>
+  <si>
+    <t>FI E 103</t>
+  </si>
+  <si>
+    <t>El pensamiento de Santo Tomás</t>
+  </si>
+  <si>
+    <t>F. C. Copleston</t>
+  </si>
+  <si>
+    <t>FI E 104</t>
+  </si>
+  <si>
+    <t>La educación y el mundo moderno</t>
+  </si>
+  <si>
+    <t>FI E 105</t>
+  </si>
+  <si>
+    <t>Filosofia de la historia</t>
+  </si>
+  <si>
+    <t>FI E 106</t>
+  </si>
+  <si>
+    <t>El significado de la verdad</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>FI E 107</t>
+  </si>
+  <si>
+    <t>Cuatro visiones de la historia universal</t>
+  </si>
+  <si>
+    <t>FI E 108</t>
+  </si>
+  <si>
+    <t>El alcance de la mente</t>
+  </si>
+  <si>
+    <t>J. B. Rhine</t>
+  </si>
+  <si>
+    <t>FI E 109</t>
+  </si>
+  <si>
+    <t>Las ideas de nuestro tiempo</t>
+  </si>
+  <si>
+    <t>Jean Francois Revel</t>
+  </si>
+  <si>
+    <t>Organización editorial</t>
+  </si>
+  <si>
+    <t>FI E 110</t>
+  </si>
+  <si>
+    <t>Fantasía del inconsciente</t>
+  </si>
+  <si>
+    <t>D. H. Lawrence</t>
+  </si>
+  <si>
+    <t>FI E 111</t>
+  </si>
+  <si>
+    <t>Anatomía de la consciencia</t>
+  </si>
+  <si>
+    <t>Miguel Guirao</t>
+  </si>
+  <si>
+    <t>Andes Internacional</t>
+  </si>
+  <si>
+    <t>FI E 112</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>FI E 113</t>
+  </si>
+  <si>
+    <t>La muerte de Virgilio</t>
+  </si>
+  <si>
+    <t>Hermann Broch</t>
+  </si>
+  <si>
+    <t>FI E 114</t>
+  </si>
+  <si>
+    <t>Los clásicos redivivos / Los clásicos futuros</t>
+  </si>
+  <si>
+    <t>FI E 115</t>
+  </si>
+  <si>
+    <t>La conquista de la felicidad</t>
+  </si>
+  <si>
+    <t>FI E 116</t>
+  </si>
+  <si>
+    <t>Obras de San Juan de la Cruz</t>
+  </si>
+  <si>
+    <t>Apostolado de la Prensa</t>
+  </si>
+  <si>
+    <t>FI E 117</t>
+  </si>
+  <si>
+    <t>Las comunas en la contracultura</t>
+  </si>
+  <si>
+    <t>Keith Melville</t>
+  </si>
+  <si>
+    <t>Kairós</t>
+  </si>
+  <si>
+    <t>FI E 118</t>
+  </si>
+  <si>
+    <t>La psicología aplicada</t>
+  </si>
+  <si>
+    <t>René Binois</t>
+  </si>
+  <si>
+    <t>FI E 119</t>
+  </si>
+  <si>
+    <t>Introducción a Wilhelm Reich</t>
+  </si>
+  <si>
+    <t>Jean-Michel Palmier</t>
+  </si>
+  <si>
+    <t>FI E 120</t>
+  </si>
+  <si>
+    <t>Ensayos sobrela experiencia liberadora</t>
+  </si>
+  <si>
+    <t>FI E 121</t>
+  </si>
+  <si>
+    <t>El informe de Brodie</t>
+  </si>
+  <si>
+    <t>FI E 122</t>
+  </si>
+  <si>
+    <t>Guía de la meditación transcendental</t>
+  </si>
+  <si>
+    <t>C. Muñoz MalaGarriga</t>
+  </si>
+  <si>
+    <t>FI E 123</t>
+  </si>
+  <si>
+    <t>El Positivismo Lógico</t>
+  </si>
+  <si>
+    <t>A. J. Ayer</t>
+  </si>
+  <si>
+    <t>FI E 124</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Calamus Scriptorius</t>
+  </si>
+  <si>
+    <t>FI E 125</t>
+  </si>
+  <si>
+    <t>Hipnosis práctica y autohipnosis</t>
+  </si>
+  <si>
+    <t>Bernard Hollander</t>
+  </si>
+  <si>
+    <t>Glem</t>
+  </si>
+  <si>
+    <t>FI E 126</t>
+  </si>
+  <si>
+    <t>Las fronteras del conocimiento</t>
+  </si>
+  <si>
+    <t>FI E 127</t>
+  </si>
+  <si>
+    <t>La libertad cristiana</t>
+  </si>
+  <si>
+    <t>Martín Lutero</t>
+  </si>
+  <si>
+    <t>La Aurorar</t>
+  </si>
+  <si>
+    <t>FI E 128</t>
+  </si>
+  <si>
+    <t>Sociología de las enfermedades mentales</t>
+  </si>
+  <si>
+    <t>Roger Bastide</t>
+  </si>
+  <si>
+    <t>Siglo XXI</t>
+  </si>
+  <si>
+    <t>FI E 129</t>
+  </si>
+  <si>
+    <t>El protestantismo y el mundo moderno</t>
+  </si>
+  <si>
+    <t>E. Troeltsch</t>
+  </si>
+  <si>
+    <t>FI E 130</t>
+  </si>
+  <si>
+    <t>Nietzsche y el cristianismo</t>
+  </si>
+  <si>
+    <t>Deucalión</t>
+  </si>
+  <si>
+    <t>FI E 131</t>
+  </si>
+  <si>
+    <t>Los nombres de Cristo</t>
+  </si>
+  <si>
+    <t>Fray Luis de León</t>
+  </si>
+  <si>
+    <t>Espasa-Calpe</t>
+  </si>
+  <si>
+    <t>FI E 132</t>
+  </si>
+  <si>
+    <t>La rebelión de los ángeles</t>
+  </si>
+  <si>
+    <t>FI E 133</t>
   </si>
 </sst>
 </file>
@@ -6098,985 +8069,5602 @@
         <v>611</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D184" s="3">
+        <v>1969.0</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1951.0</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D188" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D189" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D190" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="D192" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D193" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D194" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D195" s="3">
+        <v>1953.0</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1954.0</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D197" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D198" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
     <row r="199">
       <c r="A199" s="3" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>613</v>
+        <v>658</v>
       </c>
       <c r="D199" s="3">
-        <v>2000.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>614</v>
+        <v>659</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="s">
-        <v>615</v>
+        <v>660</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="D200" s="3">
-        <v>1988.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>27</v>
+        <v>662</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="s">
-        <v>618</v>
+        <v>664</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>619</v>
+        <v>665</v>
       </c>
       <c r="D201" s="3">
-        <v>1990.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>27</v>
+        <v>666</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>620</v>
+        <v>667</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>622</v>
+        <v>668</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="D202" s="3">
-        <v>2003.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>624</v>
+        <v>671</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="s">
-        <v>625</v>
+        <v>672</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>626</v>
+        <v>673</v>
       </c>
       <c r="D203" s="3">
-        <v>2000.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>627</v>
+        <v>424</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>628</v>
+        <v>674</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="s">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>630</v>
+        <v>456</v>
       </c>
       <c r="D204" s="3">
-        <v>1987.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>27</v>
+        <v>676</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>631</v>
+        <v>677</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="s">
-        <v>632</v>
+        <v>678</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>633</v>
+        <v>679</v>
       </c>
       <c r="D205" s="3">
-        <v>2009.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>637</v>
+        <v>683</v>
       </c>
       <c r="D206" s="3">
-        <v>2003.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>627</v>
+        <v>453</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>640</v>
+        <v>469</v>
       </c>
       <c r="D207" s="3">
-        <v>1974.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="D208" s="3">
-        <v>1980.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>647</v>
+        <v>692</v>
       </c>
       <c r="D209" s="3">
-        <v>1998.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>648</v>
+        <v>693</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="s">
-        <v>649</v>
+        <v>694</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="D210" s="3">
-        <v>2000.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>419</v>
+        <v>696</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="D211" s="3">
-        <v>1988.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>88</v>
+        <v>676</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="D212" s="3">
-        <v>2006.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>121</v>
+        <v>703</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>657</v>
+        <v>704</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="s">
-        <v>658</v>
+        <v>705</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>659</v>
+        <v>456</v>
       </c>
       <c r="D213" s="3">
-        <v>2005.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>660</v>
+        <v>73</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>661</v>
+        <v>706</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="s">
-        <v>662</v>
+        <v>707</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="D214" s="3">
-        <v>1995.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="s">
-        <v>666</v>
+        <v>711</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>667</v>
+        <v>712</v>
       </c>
       <c r="D215" s="3">
-        <v>1975.0</v>
+        <v>1996.0</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>88</v>
+        <v>713</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
-        <v>669</v>
+        <v>715</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="D216" s="3">
-        <v>2002.0</v>
+        <v>1995.0</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>121</v>
+        <v>713</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>671</v>
+        <v>717</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="s">
-        <v>672</v>
+        <v>718</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>673</v>
+        <v>571</v>
       </c>
       <c r="D217" s="3">
-        <v>1978.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>674</v>
+        <v>55</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>675</v>
+        <v>719</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="s">
-        <v>676</v>
+        <v>720</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>677</v>
+        <v>721</v>
       </c>
       <c r="D218" s="3">
-        <v>0.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>678</v>
+        <v>55</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>677</v>
+        <v>155</v>
       </c>
       <c r="D219" s="3">
-        <v>0.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>678</v>
+        <v>66</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="s">
-        <v>681</v>
+        <v>725</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>682</v>
+        <v>155</v>
       </c>
       <c r="D220" s="3">
-        <v>1974.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>587</v>
+        <v>726</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>683</v>
+        <v>727</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="s">
-        <v>684</v>
+        <v>728</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>685</v>
+        <v>729</v>
       </c>
       <c r="D221" s="3">
-        <v>1962.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>686</v>
+        <v>730</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="s">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>688</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="C222" s="3"/>
       <c r="D222" s="3">
-        <v>1968.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>31</v>
+        <v>733</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>689</v>
+        <v>734</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="s">
-        <v>690</v>
+        <v>735</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>691</v>
+        <v>456</v>
       </c>
       <c r="D223" s="3">
-        <v>1985.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>692</v>
+        <v>125</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="D224" s="3">
-        <v>1992.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>27</v>
+        <v>739</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>696</v>
+        <v>740</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="s">
-        <v>697</v>
+        <v>741</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>354</v>
+        <v>742</v>
       </c>
       <c r="D225" s="3">
-        <v>1994.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>698</v>
+        <v>743</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>699</v>
+        <v>744</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="s">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
       <c r="D226" s="3">
-        <v>1953.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>702</v>
+        <v>125</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>703</v>
+        <v>747</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="s">
-        <v>704</v>
+        <v>748</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>705</v>
+        <v>209</v>
       </c>
       <c r="D227" s="3">
-        <v>1946.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>706</v>
+        <v>749</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>707</v>
+        <v>750</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="s">
-        <v>708</v>
+        <v>751</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>354</v>
+        <v>752</v>
       </c>
       <c r="D228" s="3">
-        <v>1960.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>709</v>
+        <v>753</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>710</v>
+        <v>754</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="s">
-        <v>711</v>
+        <v>755</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>712</v>
+        <v>456</v>
       </c>
       <c r="D229" s="3">
-        <v>1986.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>568</v>
+        <v>336</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>713</v>
+        <v>756</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="s">
-        <v>714</v>
+        <v>757</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>715</v>
+        <v>629</v>
       </c>
       <c r="D230" s="3">
-        <v>1974.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>716</v>
+        <v>662</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
       <c r="D231" s="3">
-        <v>2000.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="s">
-        <v>721</v>
+        <v>762</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>722</v>
+        <v>177</v>
       </c>
       <c r="D232" s="3">
-        <v>1989.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>725</v>
+        <v>604</v>
       </c>
       <c r="D233" s="3">
-        <v>1999.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>726</v>
+        <v>765</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="s">
-        <v>727</v>
+        <v>766</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>728</v>
+        <v>767</v>
       </c>
       <c r="D234" s="3">
-        <v>1986.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>692</v>
+        <v>343</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>729</v>
+        <v>768</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="s">
-        <v>730</v>
+        <v>769</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>731</v>
+        <v>770</v>
       </c>
       <c r="D235" s="3">
-        <v>1946.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>732</v>
+        <v>343</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>733</v>
+        <v>771</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="s">
-        <v>734</v>
+        <v>772</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>735</v>
+        <v>773</v>
       </c>
       <c r="D236" s="3">
-        <v>2002.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>736</v>
+        <v>35</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="s">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>224</v>
+        <v>776</v>
       </c>
       <c r="D237" s="3">
-        <v>1950.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>739</v>
+        <v>777</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="s">
-        <v>740</v>
+        <v>778</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>741</v>
+        <v>779</v>
       </c>
       <c r="D238" s="3">
-        <v>1951.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>742</v>
+        <v>55</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>745</v>
+        <v>166</v>
       </c>
       <c r="D239" s="3">
-        <v>1960.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>163</v>
+        <v>782</v>
       </c>
       <c r="F239" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>746</v>
+        <v>783</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>748</v>
+        <v>785</v>
       </c>
       <c r="D240" s="3">
-        <v>2008.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>749</v>
+        <v>786</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>750</v>
+        <v>787</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>752</v>
+        <v>789</v>
       </c>
       <c r="D241" s="3">
-        <v>1944.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>753</v>
+        <v>790</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="s">
-        <v>755</v>
+        <v>792</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>756</v>
+        <v>793</v>
       </c>
       <c r="D242" s="3">
-        <v>1978.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="s">
-        <v>758</v>
+        <v>795</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="D243" s="3">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>678</v>
+        <v>453</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>759</v>
+        <v>796</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
-        <v>760</v>
+        <v>797</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>761</v>
+        <v>798</v>
       </c>
       <c r="D244" s="3">
-        <v>1957.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>66</v>
+        <v>564</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>762</v>
+        <v>799</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="s">
-        <v>763</v>
+        <v>800</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>764</v>
+        <v>801</v>
       </c>
       <c r="D245" s="3">
-        <v>2007.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>765</v>
+        <v>802</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="s">
-        <v>766</v>
+        <v>803</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>767</v>
+        <v>804</v>
       </c>
       <c r="D246" s="3">
-        <v>1981.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>768</v>
+        <v>805</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="s">
-        <v>769</v>
+        <v>806</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>770</v>
+        <v>807</v>
       </c>
       <c r="D247" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D248" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D249" s="3">
+        <v>1967.0</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D250" s="3">
+        <v>1983.0</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="D252" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D253" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D254" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D255" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D257" s="3">
+        <v>1944.0</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D258" s="3">
+        <v>1954.0</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D259" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D260" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D261" s="3">
+        <v>1953.0</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D262" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D263" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D264" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D265" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D266" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D267" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="D268" s="3">
+        <v>1972.0</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D269" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="D271" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D272" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="D273" s="3">
+        <v>1952.0</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D274" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D275" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D276" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D277" s="3">
+        <v>1947.0</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D278" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D279" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D280" s="3">
+        <v>1954.0</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D281" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D282" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D283" s="3">
+        <v>1972.0</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="D284" s="3">
+        <v>1955.0</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D286" s="3">
+        <v>1952.0</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D287" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D288" s="3">
+        <v>1998.0</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D289" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D290" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D291" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D292" s="3">
+        <v>1955.0</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D293" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="D294" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D295" s="3">
+        <v>1947.0</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D296" s="3">
+        <v>1927.0</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="D297" s="3">
+        <v>1956.0</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="D298" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D299" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D300" s="3">
+        <v>1953.0</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D301" s="3">
+        <v>1969.0</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D302" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D303" s="3">
+        <v>1977.0</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="D304" s="3">
+        <v>1930.0</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D305" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D306" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D307" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D308" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D309" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D310" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D311" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D312" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="D313" s="3">
+        <v>1979.0</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D314" s="3">
+        <v>1951.0</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D315" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D316" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D317" s="3">
+        <v>1959.0</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D318" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D319" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D320" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D321" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D322" s="3">
+        <v>1948.0</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D323" s="3">
+        <v>1971.0</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="D324" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D325" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D326" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D327" s="3">
+        <v>1947.0</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329">
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330">
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331">
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332">
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333">
+      <c r="H333" s="3"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D336" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D337" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D338" s="3">
+        <v>1990.0</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D339" s="3">
+        <v>2003.0</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D341" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2003.0</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D344" s="3">
+        <v>1974.0</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D345" s="3">
         <v>1980.0</v>
       </c>
-      <c r="E247" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>772</v>
-      </c>
+      <c r="E345" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D346" s="3">
+        <v>1998.0</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D347" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D348" s="3">
+        <v>1988.0</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D349" s="3">
+        <v>2006.0</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D351" s="3">
+        <v>1995.0</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D352" s="3">
+        <v>1975.0</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2002.0</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D354" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D355" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D356" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D357" s="3">
+        <v>1974.0</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D358" s="3">
+        <v>1962.0</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D359" s="3">
+        <v>1968.0</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D360" s="3">
+        <v>1985.0</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D361" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D362" s="3">
+        <v>1994.0</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D363" s="3">
+        <v>1953.0</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D364" s="3">
+        <v>1946.0</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D365" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D366" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D367" s="3">
+        <v>1974.0</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D369" s="3">
+        <v>1989.0</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D370" s="3">
+        <v>1999.0</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D371" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D372" s="3">
+        <v>1946.0</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D373" s="3">
+        <v>2002.0</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D374" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D375" s="3">
+        <v>1951.0</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D376" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D377" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D378" s="3">
+        <v>1944.0</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D379" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D380" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D382" s="3">
+        <v>2007.0</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D383" s="3">
+        <v>1981.0</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D384" s="3">
+        <v>1980.0</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D385" s="3">
+        <v>1986.0</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1999.0</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D390" s="3">
+        <v>1995.0</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D392" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D393" s="3">
+        <v>1999.0</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D394" s="3">
+        <v>1983.0</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D396" s="3">
+        <v>2007.0</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D400" s="3">
+        <v>1984.0</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D402" s="3">
+        <v>1977.0</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="D403" s="3">
+        <v>1989.0</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2004.0</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D406" s="3">
+        <v>1998.0</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D407" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D408" s="3">
+        <v>1968.0</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D409" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D410" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="D411" s="3">
+        <v>1996.0</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D412" s="3">
+        <v>1977.0</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D413" s="3">
+        <v>1991.0</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D414" s="3">
+        <v>1998.0</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D416" s="3">
+        <v>1987.0</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D417" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D418" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D419" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D420" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D421" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D422" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D423" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D424" s="3">
+        <v>1966.0</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D425" s="3">
+        <v>1949.0</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2004.0</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D427" s="3">
+        <v>1990.0</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D428" s="3">
+        <v>1989.0</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2002.0</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2005.0</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D432" s="3">
+        <v>1991.0</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D433" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D434" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D435" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D436" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D437" s="3">
+        <v>1976.0</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D438" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D439" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D440" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D441" s="3">
+        <v>1970.0</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D442" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D443" s="3">
+        <v>1958.0</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D444" s="3">
+        <v>1961.0</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D445" s="3">
+        <v>1972.0</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D446" s="3">
+        <v>1946.0</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D447" s="3">
+        <v>1976.0</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D448" s="3">
+        <v>1999.0</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2000.0</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D450" s="3">
+        <v>1950.0</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D451" s="3">
+        <v>1964.0</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D452" s="3">
+        <v>1943.0</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D453" s="3">
+        <v>1980.0</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D454" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D455" s="3">
+        <v>1970.0</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D456" s="3">
+        <v>1955.0</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D457" s="3">
+        <v>1974.0</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D458" s="3">
+        <v>1977.0</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D459" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D460" s="3">
+        <v>1978.0</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D461" s="3">
+        <v>1963.0</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D463" s="3">
+        <v>1946.0</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D464" s="3">
+        <v>1965.0</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D465" s="3">
+        <v>1951.0</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D466" s="3">
+        <v>1955.0</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D467" s="3">
+        <v>1957.0</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D468" s="3">
+        <v>1960.0</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="F469" s="3"/>
+      <c r="H469" s="3"/>
+    </row>
+    <row r="470">
+      <c r="F470" s="3"/>
+      <c r="H470" s="3"/>
+    </row>
+    <row r="471">
+      <c r="F471" s="3"/>
+      <c r="H471" s="3"/>
+    </row>
+    <row r="472">
+      <c r="F472" s="3"/>
+      <c r="H472" s="3"/>
+    </row>
+    <row r="473">
+      <c r="F473" s="3"/>
+      <c r="H473" s="3"/>
+    </row>
+    <row r="474">
+      <c r="F474" s="3"/>
+      <c r="H474" s="3"/>
+    </row>
+    <row r="475">
+      <c r="F475" s="3"/>
+      <c r="H475" s="3"/>
+    </row>
+    <row r="476">
+      <c r="F476" s="3"/>
+      <c r="H476" s="3"/>
+    </row>
+    <row r="477">
+      <c r="F477" s="3"/>
+      <c r="H477" s="3"/>
+    </row>
+    <row r="478">
+      <c r="F478" s="3"/>
+      <c r="H478" s="3"/>
+    </row>
+    <row r="479">
+      <c r="F479" s="3"/>
+      <c r="H479" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/libmasys/excel/Filosofia.xlsx
+++ b/libmasys/excel/Filosofia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1431">
   <si>
     <t>Titulo</t>
   </si>
@@ -4238,6 +4238,9 @@
   </si>
   <si>
     <t>Las fronteras del conocimiento</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
   </si>
   <si>
     <t>FI E 127</t>
@@ -13495,59 +13498,65 @@
       <c r="B462" s="3" t="s">
         <v>830</v>
       </c>
+      <c r="D462" s="3">
+        <v>1982.0</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1409</v>
+      </c>
       <c r="F462" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="D463" s="3">
         <v>1946.0</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="F463" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D464" s="3">
         <v>1965.0</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F464" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="3" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="D465" s="3">
         <v>1951.0</v>
@@ -13559,12 +13568,12 @@
         <v>11</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="3" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>645</v>
@@ -13573,38 +13582,38 @@
         <v>1955.0</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F466" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="D467" s="3">
         <v>1957.0</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F467" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>434</v>
@@ -13619,7 +13628,7 @@
         <v>11</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="469">
